--- a/DRGs_Analytical_Document_DataMat_Spec_Checked_20200317_updated.xlsx
+++ b/DRGs_Analytical_Document_DataMat_Spec_Checked_20200317_updated.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ming\devonfgu\20200317\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ming\devonfgu\20200308\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="456">
   <si>
     <t>序号</t>
   </si>
@@ -1720,18 +1720,6 @@
     <t>本期指标值</t>
   </si>
   <si>
-    <t>上月指标值</t>
-  </si>
-  <si>
-    <t>上年度同月份指标值</t>
-  </si>
-  <si>
-    <t>上月差异率</t>
-  </si>
-  <si>
-    <t>去年差异率</t>
-  </si>
-  <si>
     <t>varchar(20)</t>
   </si>
   <si>
@@ -1774,18 +1762,6 @@
     <t>this_month_index</t>
   </si>
   <si>
-    <t>last_month_index</t>
-  </si>
-  <si>
-    <t>last_year_idex</t>
-  </si>
-  <si>
-    <t>last_month_growth</t>
-  </si>
-  <si>
-    <t>last_year_growth</t>
-  </si>
-  <si>
     <t>年度</t>
   </si>
   <si>
@@ -1989,13 +1965,25 @@
   </si>
   <si>
     <t>住院总费用</t>
+  </si>
+  <si>
+    <t>医院等级</t>
+  </si>
+  <si>
+    <t>hosp_level</t>
+  </si>
+  <si>
+    <t>百分位等级(100表示不区分百分位等级)</t>
+  </si>
+  <si>
+    <t>percent_rank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2221,6 +2209,11 @@
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2374,7 +2367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2568,6 +2561,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2886,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G175" sqref="G175:G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2965,7 +2961,7 @@
         <v>12</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>13</v>
@@ -5568,7 +5564,7 @@
         <v>39</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D70" s="29" t="s">
         <v>101</v>
@@ -5936,7 +5932,7 @@
     </row>
     <row r="88" spans="1:17" ht="21">
       <c r="A88" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>0</v>
@@ -5945,16 +5941,16 @@
         <v>379</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="21">
@@ -5963,19 +5959,19 @@
         <v>26</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="21">
@@ -6002,12 +5998,12 @@
     <row r="91" spans="1:17" ht="16.5">
       <c r="C91" s="64"/>
       <c r="E91" s="63" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="21">
       <c r="A93" s="17" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>0</v>
@@ -6022,13 +6018,13 @@
         <v>26</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="21">
@@ -6049,9 +6045,9 @@
     <row r="96" spans="1:17" ht="16.5">
       <c r="C96" s="64"/>
     </row>
-    <row r="98" spans="1:11" ht="18.75">
+    <row r="98" spans="1:7" ht="18.75">
       <c r="A98" s="12" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>0</v>
@@ -6071,22 +6067,10 @@
       <c r="G98" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="H98" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="18.75">
+    </row>
+    <row r="99" spans="1:7" ht="18.75">
       <c r="A99" s="12" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>26</v>
@@ -6101,25 +6085,13 @@
         <v>216</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="18.75">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="18.75">
       <c r="A100" s="12"/>
       <c r="B100" s="6" t="s">
         <v>39</v>
@@ -6131,28 +6103,16 @@
         <v>40</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H100" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="33">
+    </row>
+    <row r="101" spans="1:7" ht="33">
       <c r="A101" s="12"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10" t="s">
@@ -6162,52 +6122,60 @@
         <v>48</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-    </row>
-    <row r="103" spans="1:11" ht="18.75">
+    </row>
+    <row r="103" spans="1:7" ht="34.5">
       <c r="A103" s="12" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D103" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D103" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="18.75">
+      <c r="F103" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="18.75">
       <c r="A104" s="12" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="18.75">
+        <v>398</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F104" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="18.75">
       <c r="A105" s="12"/>
       <c r="B105" s="6" t="s">
         <v>39</v>
@@ -6215,25 +6183,33 @@
       <c r="C105" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>40</v>
+      <c r="D105" s="29" t="s">
+        <v>373</v>
       </c>
       <c r="E105" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" s="29" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="33">
+      <c r="G105" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="33">
       <c r="A106" s="12"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
-      <c r="D106" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="E106" s="10"/>
-    </row>
-    <row r="108" spans="1:11" ht="18.75">
+      <c r="D106" s="10"/>
+      <c r="E106" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="108" spans="1:7" ht="18.75">
       <c r="A108" s="12" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>0</v>
@@ -6242,33 +6218,21 @@
         <v>376</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="H108" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="J108" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="K108" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="18.75">
+    </row>
+    <row r="109" spans="1:7" ht="18.75">
       <c r="A109" s="12" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>26</v>
@@ -6277,31 +6241,19 @@
         <v>148</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>221</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="18.75">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="18.75">
       <c r="A110" s="12"/>
       <c r="B110" s="6" t="s">
         <v>39</v>
@@ -6313,28 +6265,16 @@
         <v>40</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H110" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K110" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="49.5">
+    </row>
+    <row r="111" spans="1:7" ht="49.5">
       <c r="A111" s="12"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10" t="s">
@@ -6342,58 +6282,66 @@
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="10" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-    </row>
-    <row r="113" spans="1:13" ht="18.75">
+    </row>
+    <row r="113" spans="1:9" ht="34.5">
       <c r="A113" s="12" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="E113" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="F113" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D113" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F113" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="G113" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="H113" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="18.75">
+    <row r="114" spans="1:9" ht="18.75">
       <c r="A114" s="12" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C114" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E114" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="E114" s="29" t="s">
+      <c r="F114" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F114" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="18.75">
+      <c r="G114" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="18.75">
       <c r="A115" s="12"/>
       <c r="B115" s="6" t="s">
         <v>39</v>
@@ -6401,31 +6349,39 @@
       <c r="C115" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="E115" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="F115" s="7" t="s">
+      <c r="D115" s="29" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="33">
+      <c r="E115" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="G115" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="49.5">
       <c r="A116" s="12"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
-      <c r="D116" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="E116" s="61" t="s">
+      <c r="D116" s="10"/>
+      <c r="E116" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="F116" s="10"/>
-    </row>
-    <row r="118" spans="1:13" ht="18.75">
+      <c r="F116" s="61" t="s">
+        <v>401</v>
+      </c>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="118" spans="1:9" ht="18.75">
       <c r="A118" s="12" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>0</v>
@@ -6434,7 +6390,7 @@
         <v>376</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>377</v>
@@ -6446,27 +6402,15 @@
         <v>379</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="J118" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="K118" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="L118" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="18.75">
+    </row>
+    <row r="119" spans="1:9" ht="18.75">
       <c r="A119" s="12" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>26</v>
@@ -6475,7 +6419,7 @@
         <v>148</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E119" s="13" t="s">
         <v>157</v>
@@ -6484,28 +6428,16 @@
         <v>216</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>224</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L119" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="M119" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="18.75">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="18.75">
       <c r="A120" s="12"/>
       <c r="B120" s="6" t="s">
         <v>39</v>
@@ -6520,31 +6452,19 @@
         <v>40</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J120" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L120" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M120" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="49.5">
+    </row>
+    <row r="121" spans="1:9" ht="49.5">
       <c r="A121" s="12"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10" t="s">
@@ -6555,61 +6475,69 @@
         <v>48</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="10"/>
-      <c r="M121" s="10"/>
-    </row>
-    <row r="123" spans="1:13" ht="18.75">
+    </row>
+    <row r="123" spans="1:9" ht="34.5">
       <c r="A123" s="12" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D123" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D123" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="E123" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E123" s="5" t="s">
-        <v>410</v>
-      </c>
       <c r="F123" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G123" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="H123" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="18.75">
+    <row r="124" spans="1:9" ht="18.75">
       <c r="A124" s="12" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="E124" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F124" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="18.75">
+      <c r="G124" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="18.75">
       <c r="A125" s="12"/>
       <c r="B125" s="6" t="s">
         <v>39</v>
@@ -6617,40 +6545,48 @@
       <c r="C125" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>40</v>
+      <c r="D125" s="29" t="s">
+        <v>373</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="F125" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G125" s="29" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="33">
+      <c r="H125" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="33">
       <c r="A126" s="12"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="10" t="s">
-        <v>397</v>
-      </c>
+      <c r="D126" s="10"/>
       <c r="E126" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="F126" s="10"/>
-    </row>
-    <row r="128" spans="1:13" ht="18.75">
+        <v>393</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+    </row>
+    <row r="128" spans="1:9" ht="18.75">
       <c r="A128" s="12" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>377</v>
@@ -6659,7 +6595,7 @@
         <v>378</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>379</v>
@@ -6667,22 +6603,10 @@
       <c r="I128" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="J128" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="K128" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="L128" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="18.75">
+    </row>
+    <row r="129" spans="1:9" ht="18.75">
       <c r="A129" s="12" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>26</v>
@@ -6691,7 +6615,7 @@
         <v>148</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E129" s="13" t="s">
         <v>157</v>
@@ -6700,28 +6624,16 @@
         <v>216</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="K129" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L129" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="M129" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="18.75">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="18.75">
       <c r="A130" s="12"/>
       <c r="B130" s="6" t="s">
         <v>39</v>
@@ -6736,31 +6648,19 @@
         <v>40</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J130" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K130" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L130" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M130" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="49.5">
+    </row>
+    <row r="131" spans="1:9" ht="49.5">
       <c r="A131" s="12"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10" t="s">
@@ -6771,61 +6671,69 @@
         <v>48</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="10"/>
-    </row>
-    <row r="133" spans="1:13" ht="18.75">
+    </row>
+    <row r="133" spans="1:9" ht="34.5">
       <c r="A133" s="12" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>416</v>
+        <v>395</v>
+      </c>
+      <c r="D133" s="59" t="s">
+        <v>452</v>
       </c>
       <c r="E133" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="G133" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="H133" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="18.75">
+    <row r="134" spans="1:9" ht="18.75">
       <c r="A134" s="12" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C134" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E134" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="D134" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="F134" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="18.75">
+        <v>383</v>
+      </c>
+      <c r="G134" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="18.75">
       <c r="A135" s="12"/>
       <c r="B135" s="6" t="s">
         <v>39</v>
@@ -6833,31 +6741,39 @@
       <c r="C135" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D135" s="7" t="s">
-        <v>40</v>
+      <c r="D135" s="29" t="s">
+        <v>373</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F135" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G135" s="29" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" ht="33">
+      <c r="H135" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="33">
       <c r="A136" s="12"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
-      <c r="D136" s="10" t="s">
-        <v>417</v>
-      </c>
+      <c r="D136" s="10"/>
       <c r="E136" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="F136" s="10"/>
-    </row>
-    <row r="138" spans="1:13" ht="34.5">
+        <v>409</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+    </row>
+    <row r="138" spans="1:9" ht="34.5">
       <c r="A138" s="12" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>0</v>
@@ -6866,13 +6782,13 @@
         <v>376</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>379</v>
@@ -6880,22 +6796,10 @@
       <c r="H138" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="I138" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="J138" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="K138" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L138" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="18.75">
+    </row>
+    <row r="139" spans="1:9" ht="18.75">
       <c r="A139" s="12" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>26</v>
@@ -6904,34 +6808,22 @@
         <v>148</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>157</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="J139" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="K139" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L139" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="18.75">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="18.75">
       <c r="A140" s="12"/>
       <c r="B140" s="6" t="s">
         <v>39</v>
@@ -6946,28 +6838,16 @@
         <v>40</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I140" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J140" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K140" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L140" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="33">
+    </row>
+    <row r="141" spans="1:9" ht="33">
       <c r="A141" s="12"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10" t="s">
@@ -6978,58 +6858,66 @@
         <v>48</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-    </row>
-    <row r="143" spans="1:13" ht="18.75">
+    </row>
+    <row r="143" spans="1:9" ht="34.5">
       <c r="A143" s="12" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>420</v>
+        <v>395</v>
+      </c>
+      <c r="D143" s="59" t="s">
+        <v>452</v>
       </c>
       <c r="E143" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F143" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="F143" s="59" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="18.75">
+      <c r="G143" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="H143" s="59" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="18.75">
       <c r="A144" s="12" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C144" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E144" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="D144" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F144" s="29" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="18.75">
+      <c r="F144" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G144" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="H144" s="29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="18.75">
       <c r="A145" s="12"/>
       <c r="B145" s="6" t="s">
         <v>39</v>
@@ -7037,31 +6925,39 @@
       <c r="C145" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D145" s="7" t="s">
-        <v>40</v>
+      <c r="D145" s="29" t="s">
+        <v>373</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F145" s="29" t="s">
+      <c r="F145" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G145" s="29" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="33">
+      <c r="H145" s="29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="33">
       <c r="A146" s="12"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
-      <c r="D146" s="10" t="s">
-        <v>417</v>
-      </c>
+      <c r="D146" s="10"/>
       <c r="E146" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="F146" s="10"/>
-    </row>
-    <row r="148" spans="1:12" ht="34.5">
+        <v>409</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+    </row>
+    <row r="148" spans="1:8" ht="34.5">
       <c r="A148" s="12" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>0</v>
@@ -7070,13 +6966,13 @@
         <v>376</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>379</v>
@@ -7084,22 +6980,10 @@
       <c r="H148" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="I148" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="J148" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="K148" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L148" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="18.75">
+    </row>
+    <row r="149" spans="1:8" ht="18.75">
       <c r="A149" s="12" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>26</v>
@@ -7108,34 +6992,22 @@
         <v>148</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E149" s="13" t="s">
         <v>157</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="I149" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="J149" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="K149" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L149" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="18.75">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="18.75">
       <c r="A150" s="12"/>
       <c r="B150" s="6" t="s">
         <v>39</v>
@@ -7150,28 +7022,16 @@
         <v>40</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I150" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J150" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K150" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L150" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="33">
+    </row>
+    <row r="151" spans="1:8" ht="33">
       <c r="A151" s="12"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10" t="s">
@@ -7182,58 +7042,66 @@
         <v>48</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
-      <c r="L151" s="10"/>
-    </row>
-    <row r="153" spans="1:12" ht="34.5">
+    </row>
+    <row r="153" spans="1:8" ht="34.5">
       <c r="A153" s="12" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D153" s="62" t="s">
-        <v>421</v>
-      </c>
-      <c r="E153" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D153" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="E153" s="62" t="s">
+        <v>413</v>
+      </c>
+      <c r="F153" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="F153" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="18.75">
+      <c r="G153" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="18.75">
       <c r="A154" s="12" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C154" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E154" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="F154" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="18.75">
+        <v>383</v>
+      </c>
+      <c r="G154" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="18.75">
       <c r="A155" s="12"/>
       <c r="B155" s="6" t="s">
         <v>39</v>
@@ -7241,31 +7109,39 @@
       <c r="C155" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D155" s="7" t="s">
-        <v>385</v>
+      <c r="D155" s="29" t="s">
+        <v>373</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F155" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G155" s="29" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="33">
+      <c r="H155" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="33">
       <c r="A156" s="12"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
-      <c r="D156" s="10" t="s">
-        <v>417</v>
-      </c>
+      <c r="D156" s="10"/>
       <c r="E156" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="F156" s="10"/>
-    </row>
-    <row r="159" spans="1:12" ht="18.75">
+        <v>409</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+    </row>
+    <row r="159" spans="1:8" ht="18.75">
       <c r="A159" s="12" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>0</v>
@@ -7274,13 +7150,13 @@
         <v>376</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>379</v>
@@ -7288,22 +7164,10 @@
       <c r="H159" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="I159" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="J159" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="K159" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L159" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="18.75">
+    </row>
+    <row r="160" spans="1:8" ht="18.75">
       <c r="A160" s="12" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>26</v>
@@ -7312,34 +7176,22 @@
         <v>148</v>
       </c>
       <c r="D160" s="13" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E160" s="13" t="s">
         <v>157</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="J160" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="K160" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L160" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="18.75">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="18.75">
       <c r="A161" s="12"/>
       <c r="B161" s="6" t="s">
         <v>39</v>
@@ -7354,28 +7206,16 @@
         <v>40</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I161" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J161" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K161" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L161" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="33">
+    </row>
+    <row r="162" spans="1:8" ht="33">
       <c r="A162" s="12"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10" t="s">
@@ -7386,58 +7226,66 @@
         <v>48</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H162" s="10"/>
-      <c r="I162" s="10"/>
-      <c r="J162" s="10"/>
-      <c r="K162" s="10"/>
-      <c r="L162" s="10"/>
-    </row>
-    <row r="164" spans="1:12" ht="18.75">
+    </row>
+    <row r="164" spans="1:8" ht="34.5">
       <c r="A164" s="12" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D164" s="62" t="s">
-        <v>432</v>
-      </c>
-      <c r="E164" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D164" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="E164" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="F164" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="F164" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" ht="18.75">
+      <c r="G164" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="18.75">
       <c r="A165" s="12" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="D165" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G165" s="65" t="s">
         <v>455</v>
       </c>
-      <c r="E165" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" ht="18.75">
+      <c r="H165" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="18.75">
       <c r="A166" s="12"/>
       <c r="B166" s="6" t="s">
         <v>39</v>
@@ -7445,31 +7293,39 @@
       <c r="C166" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D166" s="7" t="s">
-        <v>385</v>
+      <c r="D166" s="29" t="s">
+        <v>373</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F166" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G166" s="29" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" ht="33">
+      <c r="H166" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="33">
       <c r="A167" s="12"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
-      <c r="D167" s="10" t="s">
-        <v>417</v>
-      </c>
+      <c r="D167" s="10"/>
       <c r="E167" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="F167" s="10"/>
-    </row>
-    <row r="170" spans="1:12" ht="34.5">
+        <v>409</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+    </row>
+    <row r="170" spans="1:8" ht="34.5">
       <c r="A170" s="12" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>0</v>
@@ -7478,13 +7334,13 @@
         <v>376</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>379</v>
@@ -7492,22 +7348,10 @@
       <c r="H170" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="I170" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="J170" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="K170" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L170" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" ht="18.75">
+    </row>
+    <row r="171" spans="1:8" ht="18.75">
       <c r="A171" s="12" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>26</v>
@@ -7516,34 +7360,22 @@
         <v>148</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E171" s="13" t="s">
         <v>157</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="I171" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="J171" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="K171" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L171" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="18.75">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="18.75">
       <c r="A172" s="12"/>
       <c r="B172" s="6" t="s">
         <v>39</v>
@@ -7558,28 +7390,16 @@
         <v>40</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H172" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I172" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J172" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K172" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L172" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" ht="33">
+    </row>
+    <row r="173" spans="1:8" ht="33">
       <c r="A173" s="12"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10" t="s">
@@ -7590,58 +7410,66 @@
         <v>48</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H173" s="10"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="10"/>
-      <c r="K173" s="10"/>
-      <c r="L173" s="10"/>
-    </row>
-    <row r="175" spans="1:12" ht="34.5">
+    </row>
+    <row r="175" spans="1:8" ht="34.5">
       <c r="A175" s="12" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D175" s="62" t="s">
-        <v>422</v>
-      </c>
-      <c r="E175" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D175" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="E175" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="F175" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="F175" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="18.75">
+      <c r="G175" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="18.75">
       <c r="A176" s="12" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C176" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D176" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E176" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="D176" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="F176" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="18.75">
+        <v>383</v>
+      </c>
+      <c r="G176" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="18.75">
       <c r="A177" s="12"/>
       <c r="B177" s="6" t="s">
         <v>39</v>
@@ -7649,27 +7477,35 @@
       <c r="C177" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D177" s="7" t="s">
-        <v>385</v>
+      <c r="D177" s="29" t="s">
+        <v>373</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F177" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G177" s="29" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="33">
+      <c r="H177" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="33">
       <c r="A178" s="12"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
-      <c r="D178" s="10" t="s">
-        <v>417</v>
-      </c>
+      <c r="D178" s="10"/>
       <c r="E178" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="F178" s="10"/>
+        <v>409</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DRGs_Analytical_Document_DataMat_Spec_Checked_20200317_updated.xlsx
+++ b/DRGs_Analytical_Document_DataMat_Spec_Checked_20200317_updated.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ming\devonfgu\20200308\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ming\devonfgu\20200317\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="458">
   <si>
     <t>序号</t>
   </si>
@@ -1977,6 +1977,12 @@
   </si>
   <si>
     <t>percent_rank</t>
+  </si>
+  <si>
+    <t>Opers_DeptMajorDiseaseBench_FACT</t>
+  </si>
+  <si>
+    <t>Opers_DeptSpeKeyDiseaseBench_FACT</t>
   </si>
 </sst>
 </file>
@@ -2883,7 +2889,7 @@
   <dimension ref="A2:AC178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G175" sqref="G175:G178"/>
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7235,7 +7241,7 @@
     </row>
     <row r="164" spans="1:8" ht="34.5">
       <c r="A164" s="12" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>0</v>
@@ -7419,7 +7425,7 @@
     </row>
     <row r="175" spans="1:8" ht="34.5">
       <c r="A175" s="12" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>0</v>
